--- a/DCU_Tablas_Paciente_Medico.xlsx
+++ b/DCU_Tablas_Paciente_Medico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandra\Desktop\TT1\mel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\Escuela\TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -332,9 +332,6 @@
     <t xml:space="preserve">  RF2, RF8, RF9, RF18</t>
   </si>
   <si>
-    <t xml:space="preserve">  RF2, RF4, RF9</t>
-  </si>
-  <si>
     <t>RF3</t>
   </si>
   <si>
@@ -350,12 +347,15 @@
     <t>1. El usuario selecciona la opción de conectar nuevo dispositivo.
 2. Busca el dispositivo instalado previamente por el médico.
 3. Se reconocerá el dispositivo y se podrá mostrar la info.                       4. El usuario puede agregar variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RF2,  RF9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>3</v>
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>

--- a/DCU_Tablas_Paciente_Medico.xlsx
+++ b/DCU_Tablas_Paciente_Medico.xlsx
@@ -385,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,7 +1189,7 @@
   <dimension ref="B1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1202,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
     </row>

--- a/DCU_Tablas_Paciente_Medico.xlsx
+++ b/DCU_Tablas_Paciente_Medico.xlsx
@@ -412,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
